--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADA4233-0312-47C2-9B84-00DA7DA86E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A07EEC-987E-44C8-967F-D09151A9AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="21" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2069">
   <si>
     <t>Activity</t>
   </si>
@@ -7442,10 +7442,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7723,7 +7723,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>789</v>
+        <v>878</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -7747,7 +7747,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -7755,10 +7755,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>793</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
+        <v>792</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -7766,7 +7763,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>794</v>
+        <v>793</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -7782,10 +7782,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>796</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
+        <v>795</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -7793,7 +7790,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="B35" t="s">
         <v>4</v>
@@ -7804,151 +7801,151 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>797</v>
+        <v>822</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>799</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>822</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>824</v>
       </c>
@@ -8220,211 +8217,206 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>896</v>
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>897</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>900</v>
+        <v>758</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>763</v>
+        <v>91</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>91</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>901</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>902</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>109</v>
+        <v>903</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>52</v>
+        <v>242</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>242</v>
+        <v>905</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>905</v>
+        <v>358</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
         <v>359</v>
       </c>
     </row>
@@ -14786,7 +14778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -20019,8 +20011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A07EEC-987E-44C8-967F-D09151A9AE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70793BC-D0AB-462D-ABCC-8720B8279F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="21" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="2069">
   <si>
     <t>Activity</t>
   </si>
@@ -7444,7 +7444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
@@ -8429,7 +8429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -10808,8 +10808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10832,6 +10832,9 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
@@ -10840,6 +10843,9 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10848,6 +10854,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
@@ -10856,6 +10865,9 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10880,6 +10892,9 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -10888,6 +10903,9 @@
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -10896,6 +10914,9 @@
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
@@ -10904,6 +10925,9 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
@@ -10912,6 +10936,9 @@
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>4</v>
       </c>
@@ -11016,82 +11043,85 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -11186,7 +11216,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12267,7 +12297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -12731,7 +12761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
@@ -14778,7 +14808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -14875,7 +14905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -15432,8 +15462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C284"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17044,8 +17074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B35"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18170,7 +18200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:C355"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70793BC-D0AB-462D-ABCC-8720B8279F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F70B8-AB26-4234-A132-A88ED690F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="21" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="2069">
   <si>
     <t>Activity</t>
   </si>
@@ -10188,7 +10188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -10808,7 +10808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -12297,7 +12297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -12762,7 +12762,7 @@
   <dimension ref="A1:C85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13355,7 +13355,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13430,6 +13430,9 @@
       <c r="A7" t="s">
         <v>445</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -13445,6 +13448,9 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>447</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -14006,8 +14012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670F70B8-AB26-4234-A132-A88ED690F09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDB533-ED1B-4BD1-8191-32E7ABC269BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="21" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Duolingo " sheetId="3" r:id="rId15"/>
     <sheet name="Pinterest " sheetId="11" r:id="rId16"/>
     <sheet name="The Weather Network" sheetId="17" r:id="rId17"/>
-    <sheet name="Expedia (com.expedia.bookings)" sheetId="4" r:id="rId18"/>
+    <sheet name="Expedia" sheetId="4" r:id="rId18"/>
     <sheet name="Fifa" sheetId="5" r:id="rId19"/>
     <sheet name="Sephora " sheetId="13" r:id="rId20"/>
     <sheet name="Shop" sheetId="14" r:id="rId21"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="2069">
   <si>
     <t>Activity</t>
   </si>
@@ -10188,7 +10188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -12297,7 +12297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="J7" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -12761,8 +12761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14012,7 +14012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -14206,6 +14206,9 @@
       <c r="A18" t="s">
         <v>1242</v>
       </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
@@ -14222,6 +14225,9 @@
       <c r="A20" t="s">
         <v>1244</v>
       </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -14230,6 +14236,9 @@
       <c r="A21" t="s">
         <v>1245</v>
       </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
@@ -14246,6 +14255,9 @@
       <c r="A23" t="s">
         <v>1247</v>
       </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -14254,6 +14266,9 @@
       <c r="A24" t="s">
         <v>1248</v>
       </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -14262,6 +14277,9 @@
       <c r="A25" t="s">
         <v>1249</v>
       </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -14278,6 +14296,9 @@
       <c r="A27" t="s">
         <v>1251</v>
       </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -14286,6 +14307,9 @@
       <c r="A28" t="s">
         <v>1252</v>
       </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
@@ -14310,162 +14334,171 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1284</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1287</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1288</v>
       </c>
@@ -14550,82 +14583,85 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1307</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1310</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1320</v>
       </c>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BDB533-ED1B-4BD1-8191-32E7ABC269BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41870661-0AB7-456A-BF51-BEAE79050673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="21" r:id="rId1"/>
@@ -6303,7 +6303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6378,31 +6378,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6429,18 +6409,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6750,15 +6718,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9253E38-AB9E-4269-8A2A-F0015B1EC160}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
@@ -6768,31 +6736,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>2068</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>2067</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>2066</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>2065</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>2064</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>2063</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>2062</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>2061</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>2060</v>
       </c>
     </row>
@@ -7200,25 +7168,25 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="8" t="s">
         <v>2030</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
         <v>2027</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="4" t="s">
         <v>2029</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="4">
         <v>32</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="4">
         <v>63</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="4">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <v>12</v>
       </c>
       <c r="H15" s="4">
@@ -12761,7 +12729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41870661-0AB7-456A-BF51-BEAE79050673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295B2099-D27A-41C8-8AE9-7185D3412858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="21" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="2069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="2069">
   <si>
     <t>Activity</t>
   </si>
@@ -6718,7 +6718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9253E38-AB9E-4269-8A2A-F0015B1EC160}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -10776,7 +10776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -11184,7 +11184,7 @@
   <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11427,6 +11427,9 @@
       <c r="A22" t="s">
         <v>260</v>
       </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -11451,6 +11454,9 @@
       <c r="A25" t="s">
         <v>263</v>
       </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
@@ -11459,6 +11465,9 @@
       <c r="A26" t="s">
         <v>264</v>
       </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
@@ -11467,6 +11476,9 @@
       <c r="A27" t="s">
         <v>265</v>
       </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
@@ -11483,24 +11495,15 @@
       <c r="A29" t="s">
         <v>267</v>
       </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>268</v>
       </c>
-      <c r="B30" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>269</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -12265,8 +12268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13571,7 +13574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -13980,8 +13983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14818,7 +14821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -15016,7 +15019,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17084,7 +17087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Faridah\Desktop\Research\Anonymous\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6919E762-CE67-4079-B859-68C4492B19D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C6404D-3E48-4184-959F-BB5E210935B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="900" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10805,6 +10805,51 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -10882,45 +10927,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10977,13 +10983,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10997,18 +11015,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11323,7 +11329,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection sqref="A1:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11335,78 +11341,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>3466</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>3468</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>3467</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="24" t="s">
         <v>3469</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="24" t="s">
         <v>3501</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="25" t="s">
         <v>3470</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="26" t="s">
         <v>3471</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="26" t="s">
         <v>3472</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="26" t="s">
         <v>3473</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="26" t="s">
         <v>3475</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="26" t="s">
         <v>3474</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="27" t="s">
         <v>3476</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>3341</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="20" t="s">
         <v>3383</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>3424</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>3433</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>3478</v>
       </c>
-      <c r="F2" s="18">
-        <v>4</v>
-      </c>
-      <c r="G2" s="24" t="b">
+      <c r="F2" s="22">
+        <v>4</v>
+      </c>
+      <c r="G2" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="28">
         <v>387</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="28">
         <v>23</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="28">
         <v>131</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="28">
         <v>5.9431524547803614</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="29">
         <v>33.850129198966407</v>
       </c>
     </row>
@@ -11429,22 +11435,22 @@
       <c r="F3" s="14">
         <v>36</v>
       </c>
-      <c r="G3" s="24" t="b">
+      <c r="G3" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="28">
         <v>98</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="28">
         <v>10</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="28">
         <v>30</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="28">
         <v>10.204081632653061</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="29">
         <v>30.612244897959183</v>
       </c>
     </row>
@@ -11467,22 +11473,22 @@
       <c r="F4" s="14">
         <v>25</v>
       </c>
-      <c r="G4" s="24" t="b">
+      <c r="G4" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="28">
         <v>264</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="28">
         <v>12</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="28">
         <v>17</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K4" s="28">
         <v>4.5454545454545459</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="29">
         <v>6.4393939393939394</v>
       </c>
     </row>
@@ -11505,22 +11511,22 @@
       <c r="F5" s="14">
         <v>6</v>
       </c>
-      <c r="G5" s="24" t="b">
+      <c r="G5" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="28">
         <v>325</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="28">
         <v>26</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="28">
         <v>78</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="28">
         <v>8</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="29">
         <v>24</v>
       </c>
     </row>
@@ -11543,22 +11549,22 @@
       <c r="F6" s="14">
         <v>53</v>
       </c>
-      <c r="G6" s="24" t="b">
+      <c r="G6" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="28">
         <v>31</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="28">
         <v>9</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="28">
         <v>15</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="28">
         <v>29.032258064516128</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="29">
         <v>48.387096774193552</v>
       </c>
     </row>
@@ -11581,22 +11587,22 @@
       <c r="F7" s="14">
         <v>23</v>
       </c>
-      <c r="G7" s="24" t="b">
+      <c r="G7" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="28">
         <v>128</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="28">
         <v>2</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="28">
         <v>2</v>
       </c>
-      <c r="K7" s="24">
+      <c r="K7" s="28">
         <v>1.5625</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="29">
         <v>1.5625</v>
       </c>
     </row>
@@ -11619,22 +11625,22 @@
       <c r="F8" s="14">
         <v>17</v>
       </c>
-      <c r="G8" s="24" t="b">
+      <c r="G8" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="28">
         <v>80</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="28">
         <v>15</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="28">
         <v>35</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="28">
         <v>18.75</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="29">
         <v>43.75</v>
       </c>
     </row>
@@ -11657,22 +11663,22 @@
       <c r="F9" s="14">
         <v>8</v>
       </c>
-      <c r="G9" s="24" t="b">
+      <c r="G9" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="28">
         <v>178</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="28">
         <v>37</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="28">
         <v>54</v>
       </c>
-      <c r="K9" s="24">
+      <c r="K9" s="28">
         <v>20.786516853932586</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="29">
         <v>30.337078651685392</v>
       </c>
     </row>
@@ -11695,22 +11701,22 @@
       <c r="F10" s="14">
         <v>8</v>
       </c>
-      <c r="G10" s="24" t="b">
+      <c r="G10" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="28">
         <v>69</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="28">
         <v>3</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="28">
         <v>3</v>
       </c>
-      <c r="K10" s="24">
+      <c r="K10" s="28">
         <v>4.3478260869565215</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="29">
         <v>4.3478260869565215</v>
       </c>
     </row>
@@ -11733,22 +11739,22 @@
       <c r="F11" s="14">
         <v>20</v>
       </c>
-      <c r="G11" s="24" t="b">
+      <c r="G11" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="28">
         <v>51</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="28">
         <v>10</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="28">
         <v>10</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="28">
         <v>19.607843137254903</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="29">
         <v>19.607843137254903</v>
       </c>
     </row>
@@ -11771,22 +11777,22 @@
       <c r="F12" s="14">
         <v>51</v>
       </c>
-      <c r="G12" s="24" t="b">
+      <c r="G12" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="28">
         <v>128</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="28">
         <v>25</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="28">
         <v>27</v>
       </c>
-      <c r="K12" s="24">
+      <c r="K12" s="28">
         <v>19.53125</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="29">
         <v>21.09375</v>
       </c>
     </row>
@@ -11809,22 +11815,22 @@
       <c r="F13" s="14">
         <v>32</v>
       </c>
-      <c r="G13" s="24" t="b">
+      <c r="G13" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="28">
         <v>63</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="28">
         <v>10</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="28">
         <v>17</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="28">
         <v>15.873015873015873</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="29">
         <v>26.984126984126984</v>
       </c>
     </row>
@@ -11847,22 +11853,22 @@
       <c r="F14" s="14">
         <v>31</v>
       </c>
-      <c r="G14" s="24" t="b">
+      <c r="G14" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="28">
         <v>29</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="28">
         <v>5</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="28">
         <v>9</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="28">
         <v>17.241379310344829</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="29">
         <v>31.03448275862069</v>
       </c>
     </row>
@@ -11885,22 +11891,22 @@
       <c r="F15" s="14">
         <v>15</v>
       </c>
-      <c r="G15" s="24" t="b">
+      <c r="G15" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="28">
         <v>299</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="28">
         <v>6</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="28">
         <v>8</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="28">
         <v>2.0066889632107023</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="29">
         <v>2.6755852842809364</v>
       </c>
     </row>
@@ -11923,22 +11929,22 @@
       <c r="F16" s="14">
         <v>2</v>
       </c>
-      <c r="G16" s="24" t="b">
+      <c r="G16" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="28">
         <v>13</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="28">
         <v>1</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="28">
         <v>1</v>
       </c>
-      <c r="K16" s="24">
+      <c r="K16" s="28">
         <v>7.6923076923076925</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="29">
         <v>7.6923076923076925</v>
       </c>
     </row>
@@ -11961,22 +11967,22 @@
       <c r="F17" s="14">
         <v>73</v>
       </c>
-      <c r="G17" s="24" t="b">
+      <c r="G17" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="28">
         <v>199</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="28">
         <v>9</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="28">
         <v>38</v>
       </c>
-      <c r="K17" s="24">
+      <c r="K17" s="28">
         <v>4.5226130653266328</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="29">
         <v>19.095477386934672</v>
       </c>
     </row>
@@ -11999,22 +12005,22 @@
       <c r="F18" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G18" s="24" t="b">
+      <c r="G18" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="28">
         <v>16</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="28">
         <v>5</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="28">
         <v>10</v>
       </c>
-      <c r="K18" s="24">
+      <c r="K18" s="28">
         <v>31.25</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="29">
         <v>62.5</v>
       </c>
     </row>
@@ -12037,22 +12043,22 @@
       <c r="F19" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G19" s="24" t="b">
+      <c r="G19" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="28">
         <v>17</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="28">
         <v>7</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="28">
         <v>8</v>
       </c>
-      <c r="K19" s="24">
+      <c r="K19" s="28">
         <v>41.176470588235297</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="29">
         <v>47.058823529411768</v>
       </c>
     </row>
@@ -12075,22 +12081,22 @@
       <c r="F20" s="14">
         <v>70</v>
       </c>
-      <c r="G20" s="24" t="b">
+      <c r="G20" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="28">
         <v>35</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="28">
         <v>6</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="28">
         <v>9</v>
       </c>
-      <c r="K20" s="24">
+      <c r="K20" s="28">
         <v>17.142857142857142</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="29">
         <v>25.714285714285715</v>
       </c>
     </row>
@@ -12113,22 +12119,22 @@
       <c r="F21" s="14">
         <v>68</v>
       </c>
-      <c r="G21" s="24" t="b">
+      <c r="G21" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="28">
         <v>84</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="28">
         <v>33</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="28">
         <v>33</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="28">
         <v>39.285714285714285</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="29">
         <v>39.285714285714285</v>
       </c>
     </row>
@@ -12151,22 +12157,22 @@
       <c r="F22" s="14">
         <v>1</v>
       </c>
-      <c r="G22" s="24" t="b">
+      <c r="G22" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="28">
         <v>31</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="28">
         <v>8</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="28">
         <v>13</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="28">
         <v>25.806451612903224</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="29">
         <v>41.935483870967744</v>
       </c>
     </row>
@@ -12189,22 +12195,22 @@
       <c r="F23" s="14">
         <v>64</v>
       </c>
-      <c r="G23" s="24" t="b">
+      <c r="G23" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="28">
         <v>63</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="28">
         <v>17</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="28">
         <v>24</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="28">
         <v>26.984126984126984</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="29">
         <v>38.095238095238095</v>
       </c>
     </row>
@@ -12227,22 +12233,22 @@
       <c r="F24" s="14">
         <v>25</v>
       </c>
-      <c r="G24" s="24" t="b">
+      <c r="G24" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="28">
         <v>197</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="28">
         <v>37</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="28">
         <v>37</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="28">
         <v>18.781725888324875</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="29">
         <v>18.781725888324875</v>
       </c>
     </row>
@@ -12265,22 +12271,22 @@
       <c r="F25" s="14">
         <v>22</v>
       </c>
-      <c r="G25" s="24" t="b">
+      <c r="G25" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="28">
         <v>110</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="28">
         <v>15</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="28">
         <v>26</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="28">
         <v>13.636363636363637</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="29">
         <v>23.636363636363637</v>
       </c>
     </row>
@@ -12303,22 +12309,22 @@
       <c r="F26" s="14">
         <v>19</v>
       </c>
-      <c r="G26" s="24" t="b">
+      <c r="G26" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="28">
         <v>10</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="28">
         <v>3</v>
       </c>
-      <c r="J26" s="24">
-        <v>4</v>
-      </c>
-      <c r="K26" s="24">
+      <c r="J26" s="28">
+        <v>4</v>
+      </c>
+      <c r="K26" s="28">
         <v>30</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="29">
         <v>40</v>
       </c>
     </row>
@@ -12341,22 +12347,22 @@
       <c r="F27" s="14">
         <v>1</v>
       </c>
-      <c r="G27" s="24" t="b">
+      <c r="G27" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="28">
         <v>46</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="28">
         <v>26</v>
       </c>
-      <c r="J27" s="24">
+      <c r="J27" s="28">
         <v>29</v>
       </c>
-      <c r="K27" s="24">
+      <c r="K27" s="28">
         <v>56.521739130434781</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="29">
         <v>63.043478260869563</v>
       </c>
     </row>
@@ -12379,22 +12385,22 @@
       <c r="F28" s="14">
         <v>14</v>
       </c>
-      <c r="G28" s="24" t="b">
+      <c r="G28" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="28">
         <v>159</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="28">
         <v>23</v>
       </c>
-      <c r="J28" s="24">
+      <c r="J28" s="28">
         <v>35</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="28">
         <v>14.465408805031446</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="29">
         <v>22.012578616352201</v>
       </c>
     </row>
@@ -12417,22 +12423,22 @@
       <c r="F29" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G29" s="24" t="b">
+      <c r="G29" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="28">
         <v>125</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="28">
         <v>27</v>
       </c>
-      <c r="J29" s="24">
+      <c r="J29" s="28">
         <v>36</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="28">
         <v>21.6</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="29">
         <v>28.8</v>
       </c>
     </row>
@@ -12455,22 +12461,22 @@
       <c r="F30" s="14">
         <v>75</v>
       </c>
-      <c r="G30" s="24" t="b">
+      <c r="G30" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="28">
         <v>130</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="28">
         <v>43</v>
       </c>
-      <c r="J30" s="24">
+      <c r="J30" s="28">
         <v>51</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="28">
         <v>33.07692307692308</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="29">
         <v>39.230769230769234</v>
       </c>
     </row>
@@ -12493,22 +12499,22 @@
       <c r="F31" s="14">
         <v>3</v>
       </c>
-      <c r="G31" s="24" t="b">
+      <c r="G31" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="28">
         <v>76</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="28">
         <v>8</v>
       </c>
-      <c r="J31" s="24">
+      <c r="J31" s="28">
         <v>8</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="28">
         <v>10.526315789473685</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="29">
         <v>10.526315789473685</v>
       </c>
     </row>
@@ -12531,22 +12537,22 @@
       <c r="F32" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G32" s="24" t="b">
+      <c r="G32" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="28">
         <v>60</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="28">
         <v>5</v>
       </c>
-      <c r="J32" s="24">
+      <c r="J32" s="28">
         <v>24</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="28">
         <v>8.3333333333333339</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="29">
         <v>40</v>
       </c>
     </row>
@@ -12569,22 +12575,22 @@
       <c r="F33" s="14">
         <v>93</v>
       </c>
-      <c r="G33" s="24" t="b">
+      <c r="G33" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="28">
         <v>65</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="28">
         <v>10</v>
       </c>
-      <c r="J33" s="24">
+      <c r="J33" s="28">
         <v>18</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="28">
         <v>15.384615384615385</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="29">
         <v>27.692307692307693</v>
       </c>
     </row>
@@ -12607,22 +12613,22 @@
       <c r="F34" s="14">
         <v>74</v>
       </c>
-      <c r="G34" s="24" t="b">
+      <c r="G34" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="28">
         <v>75</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="28">
         <v>32</v>
       </c>
-      <c r="J34" s="24">
+      <c r="J34" s="28">
         <v>36</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="28">
         <v>42.666666666666664</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="29">
         <v>48</v>
       </c>
     </row>
@@ -12645,22 +12651,22 @@
       <c r="F35" s="14">
         <v>55</v>
       </c>
-      <c r="G35" s="24" t="b">
+      <c r="G35" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="28">
         <v>63</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="28">
         <v>1</v>
       </c>
-      <c r="J35" s="24">
+      <c r="J35" s="28">
         <v>5</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="28">
         <v>1.5873015873015872</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="29">
         <v>7.9365079365079367</v>
       </c>
     </row>
@@ -12683,22 +12689,22 @@
       <c r="F36" s="14">
         <v>53</v>
       </c>
-      <c r="G36" s="24" t="b">
+      <c r="G36" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="28">
         <v>29</v>
       </c>
-      <c r="I36" s="24">
-        <v>4</v>
-      </c>
-      <c r="J36" s="24">
-        <v>4</v>
-      </c>
-      <c r="K36" s="24">
+      <c r="I36" s="28">
+        <v>4</v>
+      </c>
+      <c r="J36" s="28">
+        <v>4</v>
+      </c>
+      <c r="K36" s="28">
         <v>13.793103448275861</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="29">
         <v>13.793103448275861</v>
       </c>
     </row>
@@ -12721,22 +12727,22 @@
       <c r="F37" s="14">
         <v>27</v>
       </c>
-      <c r="G37" s="24" t="b">
+      <c r="G37" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="28">
         <v>34</v>
       </c>
-      <c r="I37" s="24">
-        <v>4</v>
-      </c>
-      <c r="J37" s="24">
+      <c r="I37" s="28">
+        <v>4</v>
+      </c>
+      <c r="J37" s="28">
         <v>7</v>
       </c>
-      <c r="K37" s="24">
+      <c r="K37" s="28">
         <v>11.764705882352942</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="29">
         <v>20.588235294117649</v>
       </c>
     </row>
@@ -12759,22 +12765,22 @@
       <c r="F38" s="14">
         <v>5</v>
       </c>
-      <c r="G38" s="24" t="b">
+      <c r="G38" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="28">
         <v>19</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="28">
         <v>2</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J38" s="28">
         <v>3</v>
       </c>
-      <c r="K38" s="24">
+      <c r="K38" s="28">
         <v>10.526315789473685</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="29">
         <v>15.789473684210526</v>
       </c>
     </row>
@@ -12797,22 +12803,22 @@
       <c r="F39" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G39" s="24" t="b">
+      <c r="G39" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="28">
         <v>15</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="28">
         <v>7</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J39" s="28">
         <v>9</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K39" s="28">
         <v>46.666666666666664</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="29">
         <v>60</v>
       </c>
     </row>
@@ -12835,22 +12841,22 @@
       <c r="F40" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G40" s="24" t="b">
+      <c r="G40" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="28">
         <v>17</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="28">
         <v>1</v>
       </c>
-      <c r="J40" s="24">
+      <c r="J40" s="28">
         <v>2</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="28">
         <v>5.882352941176471</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="29">
         <v>11.764705882352942</v>
       </c>
     </row>
@@ -12873,22 +12879,22 @@
       <c r="F41" s="14" t="s">
         <v>3465</v>
       </c>
-      <c r="G41" s="24" t="b">
+      <c r="G41" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="28">
         <v>32</v>
       </c>
-      <c r="I41" s="24">
+      <c r="I41" s="28">
         <v>17</v>
       </c>
-      <c r="J41" s="24">
+      <c r="J41" s="28">
         <v>17</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="28">
         <v>53.125</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="29">
         <v>53.125</v>
       </c>
     </row>
@@ -12911,60 +12917,60 @@
       <c r="F42" s="14">
         <v>102</v>
       </c>
-      <c r="G42" s="24" t="b">
+      <c r="G42" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="28">
         <v>35</v>
       </c>
-      <c r="I42" s="24">
+      <c r="I42" s="28">
         <v>11</v>
       </c>
-      <c r="J42" s="24">
+      <c r="J42" s="28">
         <v>11</v>
       </c>
-      <c r="K42" s="24">
+      <c r="K42" s="28">
         <v>31.428571428571427</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="29">
         <v>31.428571428571427</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="15" t="s">
         <v>3382</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="16" t="s">
         <v>3423</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="16" t="s">
         <v>3432</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="16" t="s">
         <v>3460</v>
       </c>
-      <c r="E43" s="28" t="s">
+      <c r="E43" s="17" t="s">
         <v>3510</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F43" s="18">
         <v>14</v>
       </c>
-      <c r="G43" s="24" t="b">
+      <c r="G43" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="28">
         <v>29</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="28">
         <v>6</v>
       </c>
-      <c r="J43" s="24">
+      <c r="J43" s="28">
         <v>8</v>
       </c>
-      <c r="K43" s="24">
+      <c r="K43" s="28">
         <v>20.689655172413794</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="29">
         <v>27.586206896551722</v>
       </c>
     </row>
@@ -12996,6 +13002,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F446DF50-0F8B-4039-BD43-61E48D17604E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4751DE7-FB8C-4040-A9AE-7AC18DFB1B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="3" xr2:uid="{A62121A6-B06E-4EA5-80E6-B92E89DA2E47}"/>
   </bookViews>
@@ -34303,8 +34303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A0D957-F61A-45A0-8398-B09AD6C5E3BF}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4751DE7-FB8C-4040-A9AE-7AC18DFB1B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0707AA-36BD-467C-BEE5-B9084F5B37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="3" xr2:uid="{A62121A6-B06E-4EA5-80E6-B92E89DA2E47}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="29" activeTab="31" xr2:uid="{A62121A6-B06E-4EA5-80E6-B92E89DA2E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="43" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6901" uniqueCount="3476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6899" uniqueCount="3475">
   <si>
     <t>Activity</t>
   </si>
@@ -7836,9 +7836,6 @@
     <t>com.mcdonalds.app.aet.activities.AETPlaylistActivity</t>
   </si>
   <si>
-    <t>com.mcdonalds.app.aet.activities.AETWebViewActivity</t>
-  </si>
-  <si>
     <t>com.mcdonalds.app.aet.activities.AETCalendarActivity</t>
   </si>
   <si>
@@ -8070,9 +8067,6 @@
     <t>com.apptentive.android.sdk.ApptentiveViewActivity</t>
   </si>
   <si>
-    <t>com.mcdonalds.justflip.ui.JustFlipViewActivity</t>
-  </si>
-  <si>
     <t>com.sec.android.easyMover.DistributionActivity</t>
   </si>
   <si>
@@ -10504,6 +10498,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>com.mcdonalds.payments.ui.activity.PaymentsWebviewActivity</t>
   </si>
 </sst>
 </file>
@@ -10921,42 +10918,42 @@
   <sheetData>
     <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
+        <v>3465</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>3467</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>3468</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3469</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>3470</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3471</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>3472</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>3473</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>3474</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3340</v>
+      </c>
+      <c r="C2" t="s">
         <v>3341</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>3342</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3343</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3344</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -10973,16 +10970,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="C3" t="s">
         <v>3345</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>3346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3348</v>
       </c>
       <c r="E3">
         <v>36</v>
@@ -10999,16 +10996,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="D4" t="s">
         <v>3349</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3350</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3347</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3351</v>
       </c>
       <c r="E4">
         <v>25</v>
@@ -11025,16 +11022,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="B5" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="C5" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="D5" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="E5">
         <v>6</v>
@@ -11051,16 +11048,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3353</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D6" t="s">
         <v>3354</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3343</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3356</v>
       </c>
       <c r="E6">
         <v>53</v>
@@ -11077,16 +11074,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3356</v>
+      </c>
+      <c r="C7" t="s">
         <v>3357</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>3358</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3359</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3360</v>
       </c>
       <c r="E7">
         <v>23</v>
@@ -11103,16 +11100,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
+        <v>3359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3360</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D8" t="s">
         <v>3361</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3362</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3359</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3363</v>
       </c>
       <c r="E8">
         <v>17</v>
@@ -11129,16 +11126,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D9" t="s">
         <v>3364</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3365</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3359</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3366</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -11155,16 +11152,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
+        <v>3365</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3366</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D10" t="s">
         <v>3367</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3368</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3359</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3369</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -11181,16 +11178,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
+        <v>3368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3369</v>
+      </c>
+      <c r="C11" t="s">
         <v>3370</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>3371</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3372</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3373</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -11207,16 +11204,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
+        <v>3372</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3373</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D12" t="s">
         <v>3374</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3375</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3372</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3376</v>
       </c>
       <c r="E12">
         <v>51</v>
@@ -11233,16 +11230,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
+        <v>3375</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3376</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D13" t="s">
         <v>3377</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3378</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3372</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3379</v>
       </c>
       <c r="E13">
         <v>32</v>
@@ -11259,16 +11256,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
+        <v>3378</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D14" t="s">
         <v>3380</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3381</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3372</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3382</v>
       </c>
       <c r="E14">
         <v>31</v>
@@ -11285,16 +11282,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
+        <v>3381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3382</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D15" t="s">
         <v>3383</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3384</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3372</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3385</v>
       </c>
       <c r="E15">
         <v>15</v>
@@ -11311,16 +11308,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="B16" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
       <c r="C16" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="D16" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -11337,16 +11334,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
+        <v>3386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3387</v>
+      </c>
+      <c r="C17" t="s">
         <v>3388</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>3389</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3390</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3391</v>
       </c>
       <c r="E17">
         <v>73</v>
@@ -11363,16 +11360,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
+        <v>3390</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D18" t="s">
         <v>3392</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>3393</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3394</v>
-      </c>
-      <c r="E18" t="s">
-        <v>3395</v>
       </c>
       <c r="F18">
         <v>41.176470588235297</v>
@@ -11386,19 +11383,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
+        <v>3394</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3395</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D19" t="s">
         <v>3396</v>
       </c>
-      <c r="B19" t="s">
-        <v>3397</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>3393</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3398</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3395</v>
       </c>
       <c r="F19">
         <v>31.25</v>
@@ -11412,16 +11409,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
+        <v>3397</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3398</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D20" t="s">
         <v>3399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3400</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3401</v>
       </c>
       <c r="E20">
         <v>70</v>
@@ -11438,16 +11435,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
+        <v>3400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3401</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D21" t="s">
         <v>3402</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3403</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3404</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -11464,16 +11461,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
+        <v>3403</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3404</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D22" t="s">
         <v>3405</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3406</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3407</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -11490,16 +11487,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
+        <v>3406</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3407</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D23" t="s">
         <v>3408</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3409</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3410</v>
       </c>
       <c r="E23">
         <v>64</v>
@@ -11516,16 +11513,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="B24" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="C24" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="D24" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="E24">
         <v>25</v>
@@ -11542,16 +11539,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
+        <v>3411</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3412</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D25" t="s">
         <v>3413</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3414</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3415</v>
       </c>
       <c r="E25">
         <v>22</v>
@@ -11568,16 +11565,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
+        <v>3414</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D26" t="s">
         <v>3416</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3417</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3418</v>
       </c>
       <c r="E26">
         <v>19</v>
@@ -11594,16 +11591,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D27" t="s">
         <v>3419</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3420</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3393</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3421</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -11620,16 +11617,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C28" t="s">
         <v>3422</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>3423</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3424</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3425</v>
       </c>
       <c r="E28">
         <v>14</v>
@@ -11646,19 +11643,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="B29" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="C29" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="D29" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="E29" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="F29">
         <v>21.6</v>
@@ -11672,16 +11669,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
+        <v>3426</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D30" t="s">
         <v>3428</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3429</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3424</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3430</v>
       </c>
       <c r="E30">
         <v>75</v>
@@ -11698,16 +11695,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="B31" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="C31" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="D31" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -11724,19 +11721,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
+        <v>3431</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C32" t="s">
         <v>3433</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>3434</v>
       </c>
-      <c r="C32" t="s">
-        <v>3435</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3436</v>
-      </c>
       <c r="E32" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="F32">
         <v>28.333333333333332</v>
@@ -11750,16 +11747,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
+        <v>3435</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D33" t="s">
         <v>3437</v>
-      </c>
-      <c r="B33" t="s">
-        <v>3438</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3435</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3439</v>
       </c>
       <c r="E33">
         <v>93</v>
@@ -11776,16 +11773,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
+        <v>3438</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D34" t="s">
         <v>3440</v>
-      </c>
-      <c r="B34" t="s">
-        <v>3441</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3435</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3442</v>
       </c>
       <c r="E34">
         <v>74</v>
@@ -11802,16 +11799,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="B35" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="C35" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="D35" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="E35">
         <v>55</v>
@@ -11828,16 +11825,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="B36" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="C36" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="D36" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="E36">
         <v>53</v>
@@ -11854,16 +11851,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
+        <v>3445</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D37" t="s">
         <v>3447</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3448</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3435</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3449</v>
       </c>
       <c r="E37">
         <v>27</v>
@@ -11880,16 +11877,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
+        <v>3448</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D38" t="s">
         <v>3450</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3451</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3435</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3452</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -11906,19 +11903,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
+        <v>3451</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C39" t="s">
         <v>3453</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>3454</v>
       </c>
-      <c r="C39" t="s">
-        <v>3455</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3456</v>
-      </c>
       <c r="E39" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="F39">
         <v>5.882352941176471</v>
@@ -11932,19 +11929,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
+        <v>3455</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D40" t="s">
         <v>3457</v>
       </c>
-      <c r="B40" t="s">
-        <v>3458</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3455</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3459</v>
-      </c>
       <c r="E40" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="F40">
         <v>53.125</v>
@@ -11958,19 +11955,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
+        <v>3458</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3453</v>
+      </c>
+      <c r="D41" t="s">
         <v>3460</v>
       </c>
-      <c r="B41" t="s">
-        <v>3461</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3455</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3462</v>
-      </c>
       <c r="E41" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="F41">
         <v>53.333333333333336</v>
@@ -11984,16 +11981,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="B42" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="C42" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="D42" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="E42">
         <v>102</v>
@@ -12010,16 +12007,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="B43" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="C43" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="D43" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="E43">
         <v>14</v>
@@ -12036,7 +12033,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.75">
       <c r="A44" s="7" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -30083,15 +30080,16 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A204B-6835-4518-9609-7ACD8CEAED77}">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="5" width="40" customWidth="1"/>
+    <col min="1" max="1" width="56.6328125" customWidth="1"/>
+    <col min="2" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
@@ -30113,7 +30111,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -30130,7 +30128,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -30147,7 +30145,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -30164,7 +30162,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -30181,7 +30179,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -30198,7 +30196,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2536</v>
+        <v>2532</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -30215,7 +30213,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2537</v>
+        <v>2545</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -30232,7 +30230,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2538</v>
+        <v>2531</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -30249,7 +30247,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -30283,7 +30281,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -30300,7 +30298,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -30334,7 +30332,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -30351,7 +30349,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -30368,7 +30366,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -30396,7 +30394,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -30436,17 +30434,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A22" s="4" t="s">
         <v>2551</v>
       </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -30480,7 +30478,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -30494,7 +30492,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -30508,7 +30506,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -30522,7 +30520,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -30611,7 +30609,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -30619,7 +30617,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -30627,7 +30625,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -30643,7 +30641,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -30651,7 +30649,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -30667,122 +30665,122 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>2571</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>2572</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>2573</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>2574</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>2575</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>2576</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>2577</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>2578</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>2579</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>2580</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>2581</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>2582</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>2583</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>2584</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>2585</v>
+        <v>799</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>2586</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>2587</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>2588</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>2589</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>2590</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>2591</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.75">
@@ -30797,242 +30795,242 @@
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>2597</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>2598</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>2599</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>2600</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>2601</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>2602</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>2603</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>2604</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>2605</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>2606</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>2607</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>2608</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>2609</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>2610</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>2611</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>2612</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>2613</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>2614</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>2615</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>2616</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>2617</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>2618</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>2619</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>2620</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>2621</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>2622</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>2623</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>2624</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
-        <v>2625</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
-        <v>2626</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>2627</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>2628</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>2629</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>2630</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
-        <v>2631</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
-        <v>2632</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
-        <v>2633</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
-        <v>2634</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>2635</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>2636</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>2637</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>2638</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>2639</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>2640</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>2641</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>2642</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.75">
@@ -31042,225 +31040,221 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>2644</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
-        <v>2645</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>2646</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
-        <v>2647</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>2648</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
-        <v>2096</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>2649</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>2650</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>2651</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
-        <v>2652</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>2653</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>2654</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A130" t="s">
-        <v>2656</v>
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A130" s="4" t="s">
+        <v>2642</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>2657</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>2658</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>2659</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>2660</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>2661</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>2662</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>27</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>1472</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>1364</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>1473</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>1474</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>1366</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>1367</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>799</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>34</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>368</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>369</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>113</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>114</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>115</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>116</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>2663</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A155" t="s">
-        <v>1211</v>
+      <c r="A155" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>345</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>2664</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>2074</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A159" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A160" t="s">
-        <v>128</v>
+        <v>2659</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E158">
+    <sortCondition ref="B2:B158"/>
+    <sortCondition ref="C2:C158"/>
+    <sortCondition ref="D2:D158"/>
+    <sortCondition ref="E2:E158"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -31297,7 +31291,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -31314,7 +31308,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -31331,7 +31325,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -31348,7 +31342,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -31365,7 +31359,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -31382,7 +31376,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -31399,7 +31393,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -31416,7 +31410,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -31433,7 +31427,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -31450,7 +31444,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -31467,197 +31461,197 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
@@ -31705,7 +31699,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -31719,7 +31713,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -31733,7 +31727,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -31744,7 +31738,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -31755,7 +31749,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -31766,7 +31760,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -31774,7 +31768,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -31782,7 +31776,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -31790,67 +31784,67 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.75">
@@ -31865,7 +31859,7 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.75">
@@ -31875,17 +31869,17 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.75">
@@ -31905,12 +31899,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
@@ -31958,7 +31952,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -31972,7 +31966,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -31986,7 +31980,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -32000,7 +31994,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -32014,7 +32008,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -32025,7 +32019,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -32033,7 +32027,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -32041,7 +32035,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -32049,27 +32043,27 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
@@ -32114,12 +32108,12 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.75">
@@ -32187,7 +32181,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -32215,7 +32209,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -32229,7 +32223,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -32243,7 +32237,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -32257,7 +32251,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -32271,7 +32265,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -32285,7 +32279,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -32299,7 +32293,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -32313,7 +32307,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -32327,7 +32321,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -32341,7 +32335,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -32355,7 +32349,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -32369,7 +32363,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -32383,7 +32377,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -32439,7 +32433,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -32450,7 +32444,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -32461,7 +32455,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -32472,7 +32466,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -32480,7 +32474,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -32488,7 +32482,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -32496,7 +32490,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -32512,7 +32506,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -32534,7 +32528,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -32545,7 +32539,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -32574,432 +32568,432 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.75">
@@ -33082,7 +33076,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -33096,7 +33090,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -33110,7 +33104,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -33124,7 +33118,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -33138,7 +33132,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -33149,7 +33143,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -33160,7 +33154,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -33171,7 +33165,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -33179,7 +33173,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -33187,7 +33181,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -33195,7 +33189,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -33203,7 +33197,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -33211,7 +33205,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -33219,7 +33213,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -33227,7 +33221,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -33235,7 +33229,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -33243,7 +33237,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -33251,7 +33245,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -33259,232 +33253,232 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.75">
@@ -33514,27 +33508,27 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
@@ -33544,57 +33538,57 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.75">
@@ -33604,82 +33598,82 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>2952</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>2953</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>2954</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
-        <v>2955</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>2958</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>2959</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>2960</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
-        <v>2961</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.75">
@@ -33752,7 +33746,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2962</v>
+        <v>2960</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -33785,7 +33779,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2963</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
@@ -33853,7 +33847,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -33986,7 +33980,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.75">
@@ -34101,22 +34095,22 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
@@ -34211,7 +34205,7 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
@@ -34281,17 +34275,17 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
     </row>
   </sheetData>
@@ -34303,8 +34297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A0D957-F61A-45A0-8398-B09AD6C5E3BF}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -34654,7 +34648,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -34671,7 +34665,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -34688,7 +34682,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -34705,7 +34699,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -34722,7 +34716,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -34739,7 +34733,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -34756,7 +34750,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -34770,7 +34764,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -34812,7 +34806,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -34826,7 +34820,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -34840,7 +34834,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -34854,7 +34848,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -34868,7 +34862,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -34882,7 +34876,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -34896,7 +34890,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -34910,37 +34904,37 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
@@ -34950,27 +34944,27 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
@@ -34980,1097 +34974,1097 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A77" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A81" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A82" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A83" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A84" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A85" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A86" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A87" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A88" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A89" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A90" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A91" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A92" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A93" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A94" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A95" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A96" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A97" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A98" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A99" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A100" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A101" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A102" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A103" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A104" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A105" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A106" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A107" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A108" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A109" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A110" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A111" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A112" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A113" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A114" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A115" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A116" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A117" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A118" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A119" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A120" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A121" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A122" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A123" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A124" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A125" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A126" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A127" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A128" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A129" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A130" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A131" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A132" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A133" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A134" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A135" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A136" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A137" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A138" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A139" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A140" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A141" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A142" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A143" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A144" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A145" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A146" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A147" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A148" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A149" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A150" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A151" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A152" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A153" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A154" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A155" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A156" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A157" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A158" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A159" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A160" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A163" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A164" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A165" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A166" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A167" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A168" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A169" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A170" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A171" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A172" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A173" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A174" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A175" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A176" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A177" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A178" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A179" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A180" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A181" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A182" t="s">
-        <v>3150</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A183" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A184" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A185" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A186" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A187" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A188" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A189" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A190" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A191" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A192" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A193" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A194" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A195" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A196" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A197" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A198" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A199" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A200" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A201" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A202" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A203" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A204" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A205" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A206" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A207" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A208" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A209" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A210" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A211" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A212" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A213" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A214" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A215" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A216" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A217" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A219" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A220" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A221" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A223" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A224" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A225" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A226" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A227" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A228" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A229" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A230" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A231" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A233" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A234" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A235" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A236" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A237" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A239" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A240" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A241" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A246" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A249" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A250" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.75">
@@ -36100,42 +36094,42 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.75">
@@ -36184,7 +36178,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -36201,7 +36195,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="4" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -36264,7 +36258,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -36320,7 +36314,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -36331,7 +36325,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -36342,7 +36336,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -36353,7 +36347,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -36364,7 +36358,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -36375,7 +36369,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -36386,7 +36380,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -36397,7 +36391,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -36408,7 +36402,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -36419,7 +36413,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -36430,7 +36424,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -36441,7 +36435,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -36452,7 +36446,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -36463,7 +36457,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -36474,7 +36468,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -36496,7 +36490,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -36507,7 +36501,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -36518,7 +36512,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -36529,7 +36523,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -36562,7 +36556,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -36570,7 +36564,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -36578,7 +36572,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -36586,7 +36580,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -36594,7 +36588,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -36602,7 +36596,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -36610,7 +36604,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -36618,232 +36612,232 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A60" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A67" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A71" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A73" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A74" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A75" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A76" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.75">
@@ -36853,17 +36847,17 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A78" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A79" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A80" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.75">
@@ -36926,7 +36920,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -36940,7 +36934,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -36954,7 +36948,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -36968,7 +36962,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -36982,7 +36976,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -36996,7 +36990,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -37010,7 +37004,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -37024,7 +37018,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -37038,7 +37032,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -37052,7 +37046,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -37066,7 +37060,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -37080,7 +37074,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -37094,7 +37088,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -37108,7 +37102,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -37122,7 +37116,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -37136,7 +37130,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -37150,7 +37144,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -37164,7 +37158,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -37178,7 +37172,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -37192,7 +37186,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -37206,7 +37200,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -37220,7 +37214,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -37239,7 +37233,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -37247,7 +37241,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -37255,7 +37249,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -37263,7 +37257,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -37271,7 +37265,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -37282,7 +37276,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -37293,7 +37287,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -37315,7 +37309,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="E33" t="s">
         <v>6</v>
@@ -37323,27 +37317,27 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.75">

--- a/assets/data/CoverageResults.xlsx
+++ b/assets/data/CoverageResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariakn\Research\website\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF0707AA-36BD-467C-BEE5-B9084F5B37D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC191F3-37FE-4D3E-BC07-1D23096A0FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="29" activeTab="31" xr2:uid="{A62121A6-B06E-4EA5-80E6-B92E89DA2E47}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{A62121A6-B06E-4EA5-80E6-B92E89DA2E47}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Coverage" sheetId="43" r:id="rId1"/>
@@ -10900,7 +10900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E013AF-4B40-49A6-9099-67068B933BEF}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -30082,7 +30082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A204B-6835-4518-9609-7ACD8CEAED77}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
